--- a/DM/databank/banking/deal_management/DealManagement_Test_39774.xlsx
+++ b/DM/databank/banking/deal_management/DealManagement_Test_39774.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="622">
   <si>
     <t>SQ. NO.</t>
   </si>
@@ -1763,6 +1763,198 @@
   </si>
   <si>
     <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"5526981552","modelId":"4935461180","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"9040014309","actionFlag":"OVRD","priceItemCode":"PI_022","priceItemDescription":"V2-Monthly Acct Serv Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-02","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300006","priceCompDesc":"FLAT","valueAmt":"10","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7248787470","dealId":"6148751419","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-08","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6148751419","modelId":"7248787470","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1110014458","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-08","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400004","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400005","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400006","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7248787470","dealId":"6148751419","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1118600798","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1118600799","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1118600800","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"1110014458","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-07","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6148751419","modelId":"7248787470","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1110014459","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-07","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1118600798","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1118600799","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1118600800","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7248787470","dealId":"6148751419","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-08","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6148751419","modelId":"7248787470","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1110014460","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-08","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400010","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400011","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400012","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7248787470","dealId":"6148751419","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1118600804","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1118600805","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1118600806","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"1110014460","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-07","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6148751419","modelId":"7248787470","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1110014461","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-07","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1118600804","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1118600805","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1118600806","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7258302243","dealId":"8498382277","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-08","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8498382277","modelId":"7258302243","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1020014713","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-08","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400004","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400005","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400006","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7258302243","dealId":"8498382277","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1028601285","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1028601286","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1028601287","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"1020014713","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-07","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8498382277","modelId":"7258302243","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1020014714","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-07","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1028601285","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1028601286","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1028601287","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7258302243","dealId":"8498382277","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-08","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8498382277","modelId":"7258302243","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1020014715","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-08","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400010","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400011","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400012","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7258302243","dealId":"8498382277","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1028601291","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1028601292","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1028601293","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"1020014715","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-07","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8498382277","modelId":"7258302243","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1020014716","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-07","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1028601291","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1028601292","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1028601293","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5180980116","dealId":"8250105315","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-08","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8250105315","modelId":"5180980116","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4160014721","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-08","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400004","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400005","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400006","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5180980116","dealId":"8250105315","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4168601309","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4168601310","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4168601311","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"4160014721","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-07","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8250105315","modelId":"5180980116","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4160014722","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-07","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4168601309","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4168601310","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4168601311","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5180980116","dealId":"8250105315","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-08","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8250105315","modelId":"5180980116","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4160014723","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-08","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400010","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400011","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400012","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5180980116","dealId":"8250105315","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4168601315","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4168601316","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4168601317","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"4160014723","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-07","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8250105315","modelId":"5180980116","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4160014724","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-07","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4168601315","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4168601316","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4168601317","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3483632619","dealId":"6101426273","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-08","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6101426273","modelId":"3483632619","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"9780014725","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-08","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400004","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400005","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400006","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3483632619","dealId":"6101426273","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"9788601321","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"9788601322","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"9788601323","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"9780014725","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-07","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6101426273","modelId":"3483632619","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"9780014726","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-07","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"9788601321","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"9788601322","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"9788601323","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3483632619","dealId":"6101426273","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-08","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6101426273","modelId":"3483632619","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"9780014727","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-08","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400010","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400011","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400012","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3483632619","dealId":"6101426273","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"9788601327","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"9788601328","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"9788601329","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"9780014727","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-07","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6101426273","modelId":"3483632619","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"9780014728","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-07","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"9788601327","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"9788601328","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"9788601329","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3615505801","dealId":"7253098135","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-09","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7253098135","modelId":"3615505801","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"6130014729","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-09","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400004","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400005","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400006","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3615505801","dealId":"7253098135","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"6138601333","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"6138601334","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"6138601335","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"6130014729","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-08","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7253098135","modelId":"3615505801","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"6130014730","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-08","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"6138601333","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"6138601334","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"6138601335","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3615505801","dealId":"7253098135","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-09","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7253098135","modelId":"3615505801","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"6130014731","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-09","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400010","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400011","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400012","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3615505801","dealId":"7253098135","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"6138601339","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"6138601340","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"6138601341","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"6130014731","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-08","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7253098135","modelId":"3615505801","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"6130014732","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-08","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"6138601339","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"6138601340","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"6138601341","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3926243906","dealId":"7253098135","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1858601345","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1858601346","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1858601347","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","endDate":"2023-09-07","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"1850014733","pricingStatus":"RECM","printIfZero":"Y","ignoreSw":"N","actionFlag":"RECM","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7253098135","modelId":"3926243906","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1850014737","actionFlag":"RECM","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"RECM","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-09","endDate":"2023-09-07","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1858601345","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"13","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1858601346","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1858601347","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3926243906","dealId":"7253098135","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1858601345","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1858601346","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1858601347","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","endDate":"2023-09-07","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"1850014733","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"UPD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7253098135","modelId":"3926243906","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1850014733","actionFlag":"UPD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-09","endDate":"2023-09-07","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1858601345","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"13","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1858601346","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1858601347","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3926243906","dealId":"7253098135","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"11","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-09","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7253098135","modelId":"3926243906","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1850014738","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-09","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300004","priceCompDesc":"FLAT","valueAmt":"11","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3926243906","dealId":"7253098135","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300006","valueAmt":"10","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"Y","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"5410009203","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-09","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7253098135","modelId":"3926243906","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1850014739","actionFlag":"OVRD","priceItemCode":"PI_022","priceItemDescription":"V2-Monthly Acct Serv Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-09","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300006","priceCompDesc":"FLAT","valueAmt":"10","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6997203356","dealId":"6485707686","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-10","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6485707686","modelId":"6997203356","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0110014219","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400004","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400005","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400006","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6997203356","dealId":"6485707686","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"0118600357","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"0118600358","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"0118600359","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"0110014219","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6485707686","modelId":"6997203356","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0110014220","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0118600357","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0118600358","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0118600359","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6997203356","dealId":"6485707686","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-10","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6485707686","modelId":"6997203356","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0110014221","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400010","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400011","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400012","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6997203356","dealId":"6485707686","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"0118600363","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"0118600364","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"0118600365","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"0110014221","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6485707686","modelId":"6997203356","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0110014222","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0118600363","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0118600364","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0118600365","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8896799432","dealId":"6485707686","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4838600369","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4838600370","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4838600371","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","endDate":"2023-09-08","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"4830014223","pricingStatus":"RECM","printIfZero":"Y","ignoreSw":"N","actionFlag":"RECM","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6485707686","modelId":"8896799432","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4830014227","actionFlag":"RECM","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"RECM","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-10","endDate":"2023-09-08","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4838600369","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"13","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4838600370","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4838600371","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8896799432","dealId":"6485707686","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4838600369","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4838600370","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4838600371","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","endDate":"2023-09-08","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"4830014223","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"UPD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6485707686","modelId":"8896799432","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4830014223","actionFlag":"UPD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-10","endDate":"2023-09-08","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4838600369","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"13","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4838600370","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4838600371","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8896799432","dealId":"6485707686","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"11","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-10","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6485707686","modelId":"8896799432","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4830014228","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300004","priceCompDesc":"FLAT","valueAmt":"11","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8896799432","dealId":"6485707686","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300006","valueAmt":"10","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"Y","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"5410009203","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-10","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6485707686","modelId":"8896799432","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4830014229","actionFlag":"OVRD","priceItemCode":"PI_022","priceItemDescription":"V2-Monthly Acct Serv Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300006","priceCompDesc":"FLAT","valueAmt":"10","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
   </si>
 </sst>
 </file>
@@ -8677,10 +8869,10 @@
       </c>
       <c r="Z117" s="76"/>
       <c r="AU117" t="s">
-        <v>542</v>
+        <v>606</v>
       </c>
       <c r="AV117" t="s">
-        <v>543</v>
+        <v>607</v>
       </c>
     </row>
     <row r="118" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -8743,10 +8935,10 @@
       </c>
       <c r="Z118" s="81"/>
       <c r="AU118" t="s">
-        <v>544</v>
+        <v>608</v>
       </c>
       <c r="AV118" t="s">
-        <v>545</v>
+        <v>609</v>
       </c>
     </row>
     <row r="120" spans="1:47" x14ac:dyDescent="0.35">
@@ -9050,10 +9242,10 @@
       </c>
       <c r="Z124" s="76"/>
       <c r="AU124" t="s">
-        <v>546</v>
+        <v>610</v>
       </c>
       <c r="AV124" t="s">
-        <v>547</v>
+        <v>611</v>
       </c>
     </row>
     <row r="125" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -9116,10 +9308,10 @@
       </c>
       <c r="Z125" s="81"/>
       <c r="AU125" t="s">
-        <v>548</v>
+        <v>612</v>
       </c>
       <c r="AV125" t="s">
-        <v>549</v>
+        <v>613</v>
       </c>
     </row>
     <row r="127" spans="1:47" x14ac:dyDescent="0.35">
@@ -10831,10 +11023,10 @@
       </c>
       <c r="Z184" s="76"/>
       <c r="AU184" t="s">
-        <v>550</v>
+        <v>614</v>
       </c>
       <c r="AV184" t="s">
-        <v>551</v>
+        <v>615</v>
       </c>
     </row>
     <row r="185" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -10904,10 +11096,10 @@
       </c>
       <c r="Z185" s="76"/>
       <c r="AU185" t="s">
-        <v>552</v>
+        <v>616</v>
       </c>
       <c r="AV185" t="s">
-        <v>553</v>
+        <v>617</v>
       </c>
     </row>
     <row r="186" spans="1:47" x14ac:dyDescent="0.35">
@@ -10992,10 +11184,10 @@
       </c>
       <c r="Z187" s="76"/>
       <c r="AU187" t="s">
-        <v>554</v>
+        <v>618</v>
       </c>
       <c r="AV187" t="s">
-        <v>555</v>
+        <v>619</v>
       </c>
     </row>
     <row r="188" spans="1:47" x14ac:dyDescent="0.35">
@@ -11080,10 +11272,10 @@
       </c>
       <c r="Z189" s="76"/>
       <c r="AU189" t="s">
-        <v>556</v>
+        <v>620</v>
       </c>
       <c r="AV189" t="s">
-        <v>557</v>
+        <v>621</v>
       </c>
     </row>
     <row r="191" spans="1:47" x14ac:dyDescent="0.35">

--- a/DM/databank/banking/deal_management/DealManagement_Test_39774.xlsx
+++ b/DM/databank/banking/deal_management/DealManagement_Test_39774.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="638">
   <si>
     <t>SQ. NO.</t>
   </si>
@@ -1955,6 +1955,54 @@
   </si>
   <si>
     <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6485707686","modelId":"8896799432","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4830014229","actionFlag":"OVRD","priceItemCode":"PI_022","priceItemDescription":"V2-Monthly Acct Serv Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300006","priceCompDesc":"FLAT","valueAmt":"10","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5858261297","dealId":"8859829968","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-10","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8859829968","modelId":"5858261297","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7850014293","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400004","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400005","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400006","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5858261297","dealId":"8859829968","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"7858600507","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"7858600508","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"7858600509","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"7850014293","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8859829968","modelId":"5858261297","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7850014294","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7858600507","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7858600508","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7858600509","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5858261297","dealId":"8859829968","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-10","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8859829968","modelId":"5858261297","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7850014295","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400010","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400011","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400012","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5858261297","dealId":"8859829968","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"7858600513","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"7858600514","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"7858600515","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"7850014295","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8859829968","modelId":"5858261297","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7850014296","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7858600513","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7858600514","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7858600515","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2733650899","dealId":"8859829968","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1098600519","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1098600520","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1098600521","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","endDate":"2023-09-08","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"1090014297","pricingStatus":"RECM","printIfZero":"Y","ignoreSw":"N","actionFlag":"RECM","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8859829968","modelId":"2733650899","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1090014301","actionFlag":"RECM","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"RECM","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-10","endDate":"2023-09-08","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1098600519","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"13","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1098600520","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1098600521","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2733650899","dealId":"8859829968","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1098600519","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1098600520","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1098600521","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","endDate":"2023-09-08","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"1090014297","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"UPD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8859829968","modelId":"2733650899","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1090014297","actionFlag":"UPD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-10","endDate":"2023-09-08","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1098600519","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"13","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1098600520","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1098600521","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2733650899","dealId":"8859829968","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"11","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-10","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8859829968","modelId":"2733650899","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1090014302","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300004","priceCompDesc":"FLAT","valueAmt":"11","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2733650899","dealId":"8859829968","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300006","valueAmt":"10","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"Y","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"5410009203","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-10","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8859829968","modelId":"2733650899","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1090014303","actionFlag":"OVRD","priceItemCode":"PI_022","priceItemDescription":"V2-Monthly Acct Serv Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300006","priceCompDesc":"FLAT","valueAmt":"10","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
   </si>
 </sst>
 </file>
@@ -8869,10 +8917,10 @@
       </c>
       <c r="Z117" s="76"/>
       <c r="AU117" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="AV117" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
     </row>
     <row r="118" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -8935,10 +8983,10 @@
       </c>
       <c r="Z118" s="81"/>
       <c r="AU118" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="AV118" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
     </row>
     <row r="120" spans="1:47" x14ac:dyDescent="0.35">
@@ -9242,10 +9290,10 @@
       </c>
       <c r="Z124" s="76"/>
       <c r="AU124" t="s">
-        <v>610</v>
+        <v>626</v>
       </c>
       <c r="AV124" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
     </row>
     <row r="125" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -9308,10 +9356,10 @@
       </c>
       <c r="Z125" s="81"/>
       <c r="AU125" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
       <c r="AV125" t="s">
-        <v>613</v>
+        <v>629</v>
       </c>
     </row>
     <row r="127" spans="1:47" x14ac:dyDescent="0.35">
@@ -11023,10 +11071,10 @@
       </c>
       <c r="Z184" s="76"/>
       <c r="AU184" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="AV184" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
     </row>
     <row r="185" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -11096,10 +11144,10 @@
       </c>
       <c r="Z185" s="76"/>
       <c r="AU185" t="s">
-        <v>616</v>
+        <v>632</v>
       </c>
       <c r="AV185" t="s">
-        <v>617</v>
+        <v>633</v>
       </c>
     </row>
     <row r="186" spans="1:47" x14ac:dyDescent="0.35">
@@ -11184,10 +11232,10 @@
       </c>
       <c r="Z187" s="76"/>
       <c r="AU187" t="s">
-        <v>618</v>
+        <v>634</v>
       </c>
       <c r="AV187" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
     </row>
     <row r="188" spans="1:47" x14ac:dyDescent="0.35">
@@ -11272,10 +11320,10 @@
       </c>
       <c r="Z189" s="76"/>
       <c r="AU189" t="s">
-        <v>620</v>
+        <v>636</v>
       </c>
       <c r="AV189" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
     </row>
     <row r="191" spans="1:47" x14ac:dyDescent="0.35">

--- a/DM/databank/banking/deal_management/DealManagement_Test_39774.xlsx
+++ b/DM/databank/banking/deal_management/DealManagement_Test_39774.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="670">
   <si>
     <t>SQ. NO.</t>
   </si>
@@ -2003,6 +2003,102 @@
   </si>
   <si>
     <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8859829968","modelId":"2733650899","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1090014303","actionFlag":"OVRD","priceItemCode":"PI_022","priceItemDescription":"V2-Monthly Acct Serv Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300006","priceCompDesc":"FLAT","valueAmt":"10","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5562084180","dealId":"7442892436","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-11","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7442892436","modelId":"5562084180","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7310014489","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-11","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400004","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400005","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400006","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5562084180","dealId":"7442892436","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"7318600934","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"7318600935","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"7318600936","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"7310014489","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7442892436","modelId":"5562084180","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7310014490","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7318600934","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7318600935","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7318600936","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5562084180","dealId":"7442892436","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-11","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7442892436","modelId":"5562084180","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7310014491","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-11","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400010","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400011","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400012","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5562084180","dealId":"7442892436","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"7318600940","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"7318600941","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"7318600942","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"7310014491","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7442892436","modelId":"5562084180","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7310014492","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7318600940","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7318600941","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7318600942","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9634713899","dealId":"7442892436","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5648600946","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5648600947","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5648600948","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","endDate":"2023-09-09","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5640014493","pricingStatus":"RECM","printIfZero":"Y","ignoreSw":"N","actionFlag":"RECM","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-11","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7442892436","modelId":"9634713899","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"5640014497","actionFlag":"RECM","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"RECM","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-11","endDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5648600946","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"13","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5648600947","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5648600948","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9634713899","dealId":"7442892436","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5648600946","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5648600947","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5648600948","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","endDate":"2023-09-09","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5640014493","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"UPD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-11","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7442892436","modelId":"9634713899","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"5640014493","actionFlag":"UPD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-11","endDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5648600946","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"13","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5648600947","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5648600948","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9634713899","dealId":"7442892436","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"11","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-11","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7442892436","modelId":"9634713899","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"5640014498","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-11","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300004","priceCompDesc":"FLAT","valueAmt":"11","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9634713899","dealId":"7442892436","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300006","valueAmt":"10","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"Y","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"5410009203","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-11","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7442892436","modelId":"9634713899","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"5640014499","actionFlag":"OVRD","priceItemCode":"PI_022","priceItemDescription":"V2-Monthly Acct Serv Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-11","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300006","priceCompDesc":"FLAT","valueAmt":"10","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9912853905","dealId":"2383688006","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-12","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2383688006","modelId":"9912853905","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"5630014787","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-12","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400004","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400005","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400006","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9912853905","dealId":"2383688006","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5638601475","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5638601476","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5638601477","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5630014787","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-11","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2383688006","modelId":"9912853905","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"5630014788","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-11","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5638601475","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5638601476","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5638601477","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9912853905","dealId":"2383688006","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-12","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2383688006","modelId":"9912853905","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"5630014789","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-12","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400010","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400011","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400012","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9912853905","dealId":"2383688006","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5638601481","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5638601482","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5638601483","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5630014789","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-11","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2383688006","modelId":"9912853905","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"5630014790","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-11","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5638601481","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5638601482","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5638601483","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9456121347","dealId":"2383688006","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"0738601487","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"0738601488","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"0738601489","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","endDate":"2023-09-10","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"0730014791","pricingStatus":"RECM","printIfZero":"Y","ignoreSw":"N","actionFlag":"RECM","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-12","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2383688006","modelId":"9456121347","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0730014795","actionFlag":"RECM","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"RECM","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-12","endDate":"2023-09-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0738601487","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"13","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0738601488","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0738601489","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9456121347","dealId":"2383688006","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"0738601487","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"0738601488","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"0738601489","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","endDate":"2023-09-10","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"0730014791","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"UPD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-12","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2383688006","modelId":"9456121347","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0730014791","actionFlag":"UPD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-12","endDate":"2023-09-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0738601487","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"13","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0738601488","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0738601489","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9456121347","dealId":"2383688006","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"11","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-12","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2383688006","modelId":"9456121347","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0730014796","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-12","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300004","priceCompDesc":"FLAT","valueAmt":"11","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9456121347","dealId":"2383688006","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300006","valueAmt":"10","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"Y","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"5410009203","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-12","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2383688006","modelId":"9456121347","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0730014797","actionFlag":"OVRD","priceItemCode":"PI_022","priceItemDescription":"V2-Monthly Acct Serv Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-12","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300006","priceCompDesc":"FLAT","valueAmt":"10","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
   </si>
 </sst>
 </file>
@@ -8917,10 +9013,10 @@
       </c>
       <c r="Z117" s="76"/>
       <c r="AU117" t="s">
-        <v>622</v>
+        <v>654</v>
       </c>
       <c r="AV117" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
     </row>
     <row r="118" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -8983,10 +9079,10 @@
       </c>
       <c r="Z118" s="81"/>
       <c r="AU118" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="AV118" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
     </row>
     <row r="120" spans="1:47" x14ac:dyDescent="0.35">
@@ -9290,10 +9386,10 @@
       </c>
       <c r="Z124" s="76"/>
       <c r="AU124" t="s">
-        <v>626</v>
+        <v>658</v>
       </c>
       <c r="AV124" t="s">
-        <v>627</v>
+        <v>659</v>
       </c>
     </row>
     <row r="125" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -9356,10 +9452,10 @@
       </c>
       <c r="Z125" s="81"/>
       <c r="AU125" t="s">
-        <v>628</v>
+        <v>660</v>
       </c>
       <c r="AV125" t="s">
-        <v>629</v>
+        <v>661</v>
       </c>
     </row>
     <row r="127" spans="1:47" x14ac:dyDescent="0.35">
@@ -11071,10 +11167,10 @@
       </c>
       <c r="Z184" s="76"/>
       <c r="AU184" t="s">
-        <v>630</v>
+        <v>662</v>
       </c>
       <c r="AV184" t="s">
-        <v>631</v>
+        <v>663</v>
       </c>
     </row>
     <row r="185" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -11144,10 +11240,10 @@
       </c>
       <c r="Z185" s="76"/>
       <c r="AU185" t="s">
-        <v>632</v>
+        <v>664</v>
       </c>
       <c r="AV185" t="s">
-        <v>633</v>
+        <v>665</v>
       </c>
     </row>
     <row r="186" spans="1:47" x14ac:dyDescent="0.35">
@@ -11232,10 +11328,10 @@
       </c>
       <c r="Z187" s="76"/>
       <c r="AU187" t="s">
-        <v>634</v>
+        <v>666</v>
       </c>
       <c r="AV187" t="s">
-        <v>635</v>
+        <v>667</v>
       </c>
     </row>
     <row r="188" spans="1:47" x14ac:dyDescent="0.35">
@@ -11320,10 +11416,10 @@
       </c>
       <c r="Z189" s="76"/>
       <c r="AU189" t="s">
-        <v>636</v>
+        <v>668</v>
       </c>
       <c r="AV189" t="s">
-        <v>637</v>
+        <v>669</v>
       </c>
     </row>
     <row r="191" spans="1:47" x14ac:dyDescent="0.35">
